--- a/Code/Jupiter/Connect4/Logs/PPQ/PPQ-7950-SelfPlay_L1L2_PPO_evaluation_results.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPQ/PPQ-7950-SelfPlay_L1L2_PPO_evaluation_results.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.89</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.185</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
